--- a/test/official_test_case_5.xlsx
+++ b/test/official_test_case_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\WEHI\prod\forecasting-with-workday-project\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/forecasting-project/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE618A7-3AB3-4C39-BFC1-138C973A12BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D3FBD3-1BD2-C740-BF2C-235D34AA40C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10160" yWindow="7600" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Planned Amount</t>
   </si>
   <si>
-    <t>Latest Payment Date</t>
-  </si>
-  <si>
     <t>Salary</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>trip to perth</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
   </si>
 </sst>
 </file>
@@ -460,13 +460,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,12 +486,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>45658</v>
@@ -503,12 +503,12 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>45689</v>
@@ -520,12 +520,12 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>45748</v>
@@ -537,12 +537,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>45658</v>
@@ -554,12 +554,12 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>45839</v>
@@ -571,12 +571,12 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>45658</v>
@@ -588,12 +588,12 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>45931</v>
@@ -617,17 +617,17 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -641,21 +641,21 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>9000</v>
@@ -664,15 +664,15 @@
         <v>45672</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>40000</v>
@@ -681,15 +681,15 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>8000</v>
@@ -698,15 +698,15 @@
         <v>45726</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>6000</v>
@@ -715,15 +715,15 @@
         <v>45752</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>15000</v>
@@ -732,15 +732,15 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>20000</v>
@@ -749,15 +749,15 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>7000</v>
@@ -766,15 +766,15 @@
         <v>45858</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>9000</v>
@@ -783,15 +783,15 @@
         <v>45899</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>12000</v>
@@ -800,15 +800,15 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>5000</v>
@@ -817,7 +817,7 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
     </row>
   </sheetData>
